--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>3629.996466373801</v>
+        <v>4811.582892136187</v>
       </c>
       <c r="R2">
-        <v>32669.9681973642</v>
+        <v>43304.24602922569</v>
       </c>
       <c r="S2">
-        <v>0.05372577168449216</v>
+        <v>0.07560586360934142</v>
       </c>
       <c r="T2">
-        <v>0.05372577168449216</v>
+        <v>0.07560586360934142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>7.923828463248445</v>
+        <v>8.917625103693112</v>
       </c>
       <c r="R3">
-        <v>71.31445616923601</v>
+        <v>80.25862593323801</v>
       </c>
       <c r="S3">
-        <v>0.0001172766427810975</v>
+        <v>0.0001401253521810838</v>
       </c>
       <c r="T3">
-        <v>0.0001172766427810975</v>
+        <v>0.0001401253521810837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>154.811016892896</v>
+        <v>68.49630722030234</v>
       </c>
       <c r="R4">
-        <v>1393.299152036064</v>
+        <v>616.4667649827211</v>
       </c>
       <c r="S4">
-        <v>0.002291280838667161</v>
+        <v>0.001076303282627755</v>
       </c>
       <c r="T4">
-        <v>0.00229128083866716</v>
+        <v>0.001076303282627755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>860.4010964781276</v>
+        <v>689.1691216548468</v>
       </c>
       <c r="R5">
-        <v>7743.609868303149</v>
+        <v>6202.522094893621</v>
       </c>
       <c r="S5">
-        <v>0.01273436855784269</v>
+        <v>0.01082912375899502</v>
       </c>
       <c r="T5">
-        <v>0.01273436855784269</v>
+        <v>0.01082912375899502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>23490.54878961635</v>
+        <v>27666.9182799083</v>
       </c>
       <c r="R6">
-        <v>211414.9391065471</v>
+        <v>249002.2645191747</v>
       </c>
       <c r="S6">
-        <v>0.3476719254977896</v>
+        <v>0.4347386913733203</v>
       </c>
       <c r="T6">
-        <v>0.3476719254977896</v>
+        <v>0.4347386913733203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>51.2769312148749</v>
@@ -883,10 +883,10 @@
         <v>461.4923809338741</v>
       </c>
       <c r="S7">
-        <v>0.0007589243473517178</v>
+        <v>0.0008057299966864384</v>
       </c>
       <c r="T7">
-        <v>0.0007589243473517176</v>
+        <v>0.0008057299966864383</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>1001.817984998064</v>
+        <v>393.8582742566537</v>
       </c>
       <c r="R8">
-        <v>9016.361864982577</v>
+        <v>3544.724468309884</v>
       </c>
       <c r="S8">
-        <v>0.01482740956637656</v>
+        <v>0.006188814706596209</v>
       </c>
       <c r="T8">
-        <v>0.01482740956637655</v>
+        <v>0.006188814706596208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>5567.85498902951</v>
+        <v>3962.76780371451</v>
       </c>
       <c r="R9">
-        <v>50110.69490126559</v>
+        <v>35664.91023343059</v>
       </c>
       <c r="S9">
-        <v>0.08240705154508993</v>
+        <v>0.06226817427852983</v>
       </c>
       <c r="T9">
-        <v>0.08240705154508991</v>
+        <v>0.06226817427852983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>8682.428443756829</v>
+        <v>8450.176758065892</v>
       </c>
       <c r="R10">
-        <v>78141.85599381146</v>
+        <v>76051.59082259305</v>
       </c>
       <c r="S10">
-        <v>0.128504303670081</v>
+        <v>0.1327801943284226</v>
       </c>
       <c r="T10">
-        <v>0.128504303670081</v>
+        <v>0.1327801943284227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>18.95265581387311</v>
+        <v>15.66127199253489</v>
       </c>
       <c r="R11">
-        <v>170.573902324858</v>
+        <v>140.951447932814</v>
       </c>
       <c r="S11">
-        <v>0.00028050882927941</v>
+        <v>0.000246090324278025</v>
       </c>
       <c r="T11">
-        <v>0.0002805088292794098</v>
+        <v>0.000246090324278025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>370.285643231088</v>
+        <v>120.2942807516237</v>
       </c>
       <c r="R12">
-        <v>3332.570789079792</v>
+        <v>1082.648526764613</v>
       </c>
       <c r="S12">
-        <v>0.005480413579066601</v>
+        <v>0.001890220575510696</v>
       </c>
       <c r="T12">
-        <v>0.005480413579066599</v>
+        <v>0.001890220575510696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>2057.955433924655</v>
+        <v>1210.329537022479</v>
       </c>
       <c r="R13">
-        <v>18521.59890532189</v>
+        <v>10892.96583320231</v>
       </c>
       <c r="S13">
-        <v>0.03045877449306324</v>
+        <v>0.01901827567972175</v>
       </c>
       <c r="T13">
-        <v>0.03045877449306323</v>
+        <v>0.01901827567972176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>16905.97225611968</v>
+        <v>13965.84758404136</v>
       </c>
       <c r="R14">
-        <v>152153.7503050771</v>
+        <v>125692.6282563722</v>
       </c>
       <c r="S14">
-        <v>0.2502168842175158</v>
+        <v>0.2194496055245337</v>
       </c>
       <c r="T14">
-        <v>0.2502168842175158</v>
+        <v>0.2194496055245337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>36.90362384725668</v>
+        <v>25.88382987505933</v>
       </c>
       <c r="R15">
-        <v>332.1326146253101</v>
+        <v>232.954468875534</v>
       </c>
       <c r="S15">
-        <v>0.0005461921760845939</v>
+        <v>0.0004067204816152096</v>
       </c>
       <c r="T15">
-        <v>0.0005461921760845938</v>
+        <v>0.0004067204816152095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>721.00091027016</v>
+        <v>198.813780860317</v>
       </c>
       <c r="R16">
-        <v>6489.008192431441</v>
+        <v>1789.324027742853</v>
       </c>
       <c r="S16">
-        <v>0.01067117575686829</v>
+        <v>0.003124021332761271</v>
       </c>
       <c r="T16">
-        <v>0.01067117575686828</v>
+        <v>0.00312402133276127</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>4007.143588413704</v>
+        <v>2000.34606665295</v>
       </c>
       <c r="R17">
-        <v>36064.29229572333</v>
+        <v>18003.11459987655</v>
       </c>
       <c r="S17">
-        <v>0.0593077385976502</v>
+        <v>0.03143204539487852</v>
       </c>
       <c r="T17">
-        <v>0.05930773859765019</v>
+        <v>0.03143204539487852</v>
       </c>
     </row>
   </sheetData>
